--- a/naverAd/가이드라인.xlsx
+++ b/naverAd/가이드라인.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dltjd\ALINE\mysite\naverAd\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF458F2-0532-4710-A9F8-19D12CD0A3C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="75" windowWidth="19395" windowHeight="7845"/>
+    <workbookView xWindow="9450" yWindow="16080" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="가이드라인" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
   <si>
     <t>가이드라인</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,19 +147,95 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10위 이상&gt;+50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3위 이하&gt;-10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>8개 미만은 검색 활용 키워드 추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>검색</t>
+    <t>대분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노출순위(내림)&gt;노출수(내림)&gt;클릭률(내림)</t>
+  </si>
+  <si>
+    <t>최대 10개만 노출됨,지난7일 기준 8위 초과는 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1위&gt;-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4위 이상&gt;+50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가홍보문구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[문구 1] 찜/소식 추가할인!
+[문구 2] 모든 구매자 찜/소식받기 시, 10% 추가적립 할인!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광고수익률은 300% 이상?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이트 검색광고에도 키워드 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파워링크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정 키워드+top500 중복없이 때려박기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보고서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹+상품별</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색어별</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정 키워드 선정용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 개수/입찰가 분석용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#특이한#느낌있는선물#유럽풍감성디자인#멋스런컬러인테리어# 감각적인디자인#분위기전환#30대여성#40대여성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품등록시 추천중에 골라서 10개</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -161,33 +243,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>대분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품 개수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노출순위(내림)&gt;노출수(내림)&gt;클릭률(내림)</t>
-  </si>
-  <si>
-    <t>최대 10개만 노출됨,지난7일 기준 8위 초과는 삭제</t>
+    <t>키워드선정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균1~4등 입찰가 알수있는데 넘사;;(소재&gt;입찰가변경) / 우선 흰색 테이크아웃만 유사하게함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -227,9 +294,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -240,6 +313,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -288,7 +364,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -321,9 +397,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -356,6 +449,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -531,211 +641,277 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B3" t="s">
+      <c r="F29" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E23" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" t="s">
-        <v>22</v>
+      <c r="F33" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/naverAd/가이드라인.xlsx
+++ b/naverAd/가이드라인.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dltjd\ALINE\mysite\naverAd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF458F2-0532-4710-A9F8-19D12CD0A3C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F8405F-143C-4946-8A4E-67549A9BEDD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9450" yWindow="16080" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11625" yWindow="0" windowWidth="14625" windowHeight="23085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="가이드라인" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="70">
   <si>
     <t>가이드라인</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -248,6 +248,58 @@
   </si>
   <si>
     <t>평균1~4등 입찰가 알수있는데 넘사;;(소재&gt;입찰가변경) / 우선 흰색 테이크아웃만 유사하게함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원본은 키워드 찢어서 광고그릅 삭제하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매주 월 갱신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트 문구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진/영상 첨부한 생생한 후기/찜 '최대 1300원' 지급!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제조사/브랜드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알리네 간판/동성플러스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>럭키투데이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키워드선정 툴활용(아직 변경 저장 미지원)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정 열 체크 &gt; 제외/지정 버튼 클릭 &gt; 조합/지정 키워드 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품명 선정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -642,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -654,7 +706,7 @@
     <col min="2" max="2" width="9.625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.75" style="1" customWidth="1"/>
     <col min="6" max="10" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -688,19 +740,21 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E6" s="2"/>
+      <c r="B6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
@@ -713,194 +767,237 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D11" s="1" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D14" s="1" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D17" s="1" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E20" s="1" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E21" s="1" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C27" s="1" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C32" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="1" t="s">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C30" s="1" t="s">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C35" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="1" t="s">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C33" s="1" t="s">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C38" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="B41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/naverAd/가이드라인.xlsx
+++ b/naverAd/가이드라인.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dltjd\ALINE\mysite\naverAd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F8405F-143C-4946-8A4E-67549A9BEDD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0A88FD-C0BF-4C9D-A4F8-06A4F7914E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11625" yWindow="0" windowWidth="14625" windowHeight="23085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10605" yWindow="525" windowWidth="18150" windowHeight="23085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="가이드라인" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="72">
   <si>
     <t>가이드라인</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -300,6 +300,14 @@
   </si>
   <si>
     <t>상품명 선정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰/찜갯수 상시표시?50개이상?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제외키워드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -694,10 +702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -777,134 +785,143 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D12" s="1" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E13" s="1" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E17" s="1" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D18" s="1" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="1">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E23" s="1" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E24" s="1" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="1" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -917,87 +934,97 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C32" s="1" t="s">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C33" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="1" t="s">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C35" s="1" t="s">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C36" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="1" t="s">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C38" s="1" t="s">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C39" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F39" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B40" s="1" t="s">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F41" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B41" s="1" t="s">
+    <row r="42" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="B42" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F42" s="1" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E43" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/naverAd/가이드라인.xlsx
+++ b/naverAd/가이드라인.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dltjd\ALINE\mysite\naverAd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0A88FD-C0BF-4C9D-A4F8-06A4F7914E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CCC95F-C576-4D10-8AE9-A2073D37EA6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10605" yWindow="525" windowWidth="18150" windowHeight="23085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9150" yWindow="1380" windowWidth="18150" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="가이드라인" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="112">
   <si>
     <t>가이드라인</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -259,10 +259,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>매주 월 갱신</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이벤트 문구</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -283,10 +279,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>광고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>럭키투데이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -308,6 +300,165 @@
   </si>
   <si>
     <t>제외키워드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디스플레이광고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매주 월 삭제 / 이틀에 한번 입찰가 갱신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지배너</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네이티브이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지슬라이드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루미사인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아크릴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">찜/소식받으면 최대1000원 할인! </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰 작성 시, 1300원 추가할인!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이런 조명은 처음이지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은은하게, 알리네 간판!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주목, 알리네 간판!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디자인 조명으로 시선을 한몸에!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인문구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서브문구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new 창문 인테리어, 알리네 간판!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 이미지 내 텍스트는 전체 영역의 20%를 초과할 수 없습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 두번째 설명문구 수정 바랍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 이미지에 흰색/미색 바탕의 소재 불가합니다. (구분선)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 네번째 맥주소재 삭제 바랍니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오픈 영업중입니다~</t>
+  </si>
+  <si>
+    <t>색다른 알리네 간판!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시선을 끄는 알리네 간판, 창문 간판입니다. 카페, 주점 등 이목을 집중시키는 효과가 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 설명문구1 10자 이하 / 설명문구2 13자 이하로 수정 바랍니다.</t>
+  </si>
+  <si>
+    <t>3. 시간 22시 ~ 06시 타겟 적용 바랍니다.</t>
+  </si>
+  <si>
+    <t>분위기 내는 포인트간판 &gt; 술이라고 짤림…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카페 밖이 예뻐져요</t>
+  </si>
+  <si>
+    <t>창문으로 인테리어 완성!</t>
+  </si>
+  <si>
+    <t>찜소식 1000원 할인!</t>
+  </si>
+  <si>
+    <t>포장배달 전문점</t>
+  </si>
+  <si>
+    <t>리뷰시, 1300원 할인!</t>
+  </si>
+  <si>
+    <t>시선을 끄는 창문 간판, 알리네 간판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 아래 내용 증빙 전달 바랍니다</t>
+  </si>
+  <si>
+    <t>리뷰시, 1300원 할인</t>
+  </si>
+  <si>
+    <t>2. 세번째 설명문구1 10자 이하 / 설명문구2 13자 이하로 수정 바랍니다.</t>
+  </si>
+  <si>
+    <t>3. 텍스트를 기반으로 한 모든 로고, 워터마크, 모든 숫자는 텍스트로 간주 됩니다. 비중 수정 후 재요청 바랍니다</t>
+  </si>
+  <si>
+    <t>상품전체목록&amp;보고서3종 다운
+7일 보고서: 순위 ~3 &amp; 클릭 ~5 || 입찰가&gt;350 (삭제)
+1일 보고서: 순위 ~2 &gt; -10 / 순위 5~20 &gt; +40 / 20~ &gt; +60 (입찰가 변경)
+1일 보고서: 키워드 ~10 &gt; (추가)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -702,10 +853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="E19" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -713,9 +864,11 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="9.625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="52.75" style="1" customWidth="1"/>
-    <col min="6" max="10" width="9" style="1"/>
+    <col min="6" max="6" width="87.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="56" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -750,18 +903,18 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -777,15 +930,15 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -880,10 +1033,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -924,17 +1077,20 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="66" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>59</v>
+        <v>71</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -948,7 +1104,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>48</v>
       </c>
@@ -956,7 +1112,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
         <v>35</v>
       </c>
@@ -970,7 +1126,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C36" s="1" t="s">
         <v>28</v>
       </c>
@@ -978,7 +1134,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
         <v>26</v>
       </c>
@@ -992,7 +1148,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>30</v>
       </c>
@@ -1003,7 +1159,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
         <v>57</v>
       </c>
@@ -1011,7 +1167,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
         <v>40</v>
       </c>
@@ -1022,9 +1178,168 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E43" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>70</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C46" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C47" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E48" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C49" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B52" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B55" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B58" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E59" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E60" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E61" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G62" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G63" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G64" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="65" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G65" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="66" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G66" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="67" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G67" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="68" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G68" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/naverAd/가이드라인.xlsx
+++ b/naverAd/가이드라인.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dltjd\ALINE\mysite\naverAd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CCC95F-C576-4D10-8AE9-A2073D37EA6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DEC1861-327C-49C3-A978-8F50450E0437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9150" yWindow="1380" windowWidth="18150" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="가이드라인" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="117">
   <si>
     <t>가이드라인</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -459,6 +459,26 @@
 7일 보고서: 순위 ~3 &amp; 클릭 ~5 || 입찰가&gt;350 (삭제)
 1일 보고서: 순위 ~2 &gt; -10 / 순위 5~20 &gt; +40 / 20~ &gt; +60 (입찰가 변경)
 1일 보고서: 키워드 ~10 &gt; (추가)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알리네에서 찜 / 소식 받기 시,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다양한 창문 간판 최대 1300원 할인!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영업중 간판 최대 1300원 할인!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포장배달 간판 최대 1300원 할인!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -853,10 +873,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J68"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E19" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1237,108 +1257,149 @@
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C49" s="1" t="s">
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D50" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D51" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D52" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C54" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B52" s="1" t="s">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B57" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B55" s="1" t="s">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B60" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B58" s="1" t="s">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B63" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="F63" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G58" s="2" t="s">
+      <c r="G63" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E59" s="1" t="s">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E64" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="F64" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="G64" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E60" s="1" t="s">
+    <row r="65" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E65" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="F65" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="G65" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E61" s="1" t="s">
+    <row r="66" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E66" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="F66" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="G66" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="G62" s="1" t="s">
+    <row r="67" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="G67" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="G63" s="1" t="s">
+    <row r="68" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="G68" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="G64" s="1" t="s">
+    <row r="69" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="G69" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="65" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G65" s="1" t="s">
+    <row r="70" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="G70" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="66" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G66" s="1" t="s">
+    <row r="71" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="G71" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="67" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G67" s="1" t="s">
+    <row r="72" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="G72" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="68" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G68" s="1" t="s">
+    <row r="73" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="G73" s="1" t="s">
         <v>110</v>
       </c>
     </row>
